--- a/legendre_out/DATA/p1/p1IntegrandDataPoints7.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints7.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>9.657309221498072e-07</v>
+        <v>6.693504186244372e-08</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>1.254608686668221e-06</v>
+        <v>1.854161518897194e-07</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.846357946806989e-06</v>
+        <v>2.788249330655005e-07</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>2.64413694315916e-06</v>
+        <v>2.917301990738969e-07</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>3.593454016493174e-06</v>
+        <v>3.032611496725985e-07</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>7.4918785883627e-06</v>
+        <v>3.207492009986372e-07</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.255541770239269e-05</v>
+        <v>2.91328026097552e-07</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>3.427092752552429e-05</v>
+        <v>3.206568614467961e-07</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>5.515465140760554e-05</v>
+        <v>2.383172112719236e-07</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>6.00882630736873e-05</v>
+        <v>3.00778029012281e-07</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>4.801136309123662e-05</v>
+        <v>2.344436825357062e-07</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>2.467621956950366e-05</v>
+        <v>2.097475247276757e-07</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>1.885480822519836e-05</v>
+        <v>3.007821135530552e-07</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>2.384972249923011e-05</v>
+        <v>2.33105561222528e-07</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1.050891498535459e-05</v>
+        <v>2.383672889212441e-07</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>7.578997223242984e-06</v>
+        <v>2.067091849830087e-07</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>4.358955561518389e-06</v>
+        <v>2.117794361874185e-07</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>2.262261497682027e-06</v>
+        <v>2.724325371301681e-07</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.732104392008134e-06</v>
+        <v>2.238562523640716e-07</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.743158333949183e-06</v>
+        <v>2.604467343137688e-07</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>2.074257064949856e-06</v>
+        <v>4.952718060285485e-07</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>2.631141832040965e-06</v>
+        <v>5.546303919203715e-07</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>2.532015491889316e-06</v>
+        <v>7.359598960576798e-07</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>5.374023498206924e-06</v>
+        <v>8.054289836332886e-07</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>8.138320827374992e-06</v>
+        <v>7.064954343652535e-07</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.95524035317938e-05</v>
+        <v>8.593770498387566e-07</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>4.882132125913432e-05</v>
+        <v>7.841564322415551e-07</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>4.762232866516975e-05</v>
+        <v>8.165006389091877e-07</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>2.566166404551339e-05</v>
+        <v>8.008320299294125e-07</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>1.326048581511823e-05</v>
+        <v>7.987193790206215e-07</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>6.58743075401365e-06</v>
+        <v>7.550917965485744e-07</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>6.742576307203081e-06</v>
+        <v>6.988356249099366e-07</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>4.691566372454086e-06</v>
+        <v>8.332229715169905e-07</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>4.123370400527584e-06</v>
+        <v>7.288288545744235e-07</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>2.635266714289522e-06</v>
+        <v>7.060859943741226e-07</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>2.980090286525363e-06</v>
+        <v>4.593831182318696e-07</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>6.320687945891568e-06</v>
+        <v>4.685770513695443e-07</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>4.167600779335833e-06</v>
+        <v>3.855718778802548e-07</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>1.842754712115403e-06</v>
+        <v>4.711203783268673e-07</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>1.572774253462507e-06</v>
+        <v>7.090873728977587e-07</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>1.406180352081063e-06</v>
+        <v>7.236875073374894e-07</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>1.76110162577615e-06</v>
+        <v>6.745613757380191e-07</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>3.108126223650091e-06</v>
+        <v>6.054668299523072e-07</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>7.160945493615692e-06</v>
+        <v>6.349802636974698e-07</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>8.015228241819499e-06</v>
+        <v>6.119818649847697e-07</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>9.234748251155758e-06</v>
+        <v>3.998894903520942e-07</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>9.521495454513785e-06</v>
+        <v>5.170382100624639e-07</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>8.439343795414995e-06</v>
+        <v>7.573269239208679e-07</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>7.313254076100357e-06</v>
+        <v>1.081932621309931e-06</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>5.435357349188659e-06</v>
+        <v>1.466914957559265e-06</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>4.906093400806259e-06</v>
+        <v>3.051183916549606e-06</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>4.603262259174505e-06</v>
+        <v>5.101401595699877e-06</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>4.628427364994479e-06</v>
+        <v>1.390798637634807e-05</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>4.474249760019789e-06</v>
+        <v>2.23559101432235e-05</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>4.459537653078097e-06</v>
+        <v>2.42989065884108e-05</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>5.088659647746317e-06</v>
+        <v>1.937828661470144e-05</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>6.687967505817103e-06</v>
+        <v>9.940559695086481e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>1.065690320976653e-05</v>
+        <v>7.591755850987135e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>1.61126801785671e-05</v>
+        <v>9.598643854872021e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>2.102055593187606e-05</v>
+        <v>4.227299923011084e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>2.76669060964846e-05</v>
+        <v>3.04671429805661e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>3.420260358013521e-05</v>
+        <v>1.750208068233019e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>3.680471706645079e-05</v>
+        <v>9.061408926877307e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>4.540374921432445e-05</v>
+        <v>6.93464377385441e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>5.513388440803295e-05</v>
+        <v>6.974102808795645e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>5.549636818574323e-05</v>
+        <v>8.288965161986563e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>6.179916542227097e-05</v>
+        <v>1.050146019589129e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>6.277536481388473e-05</v>
+        <v>1.009583966779113e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>6.211998096170349e-05</v>
+        <v>2.1399021805797e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>6.08533640742006e-05</v>
+        <v>3.236650693889698e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>6.084190343955866e-05</v>
+        <v>7.758484127982836e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>5.758471510142491e-05</v>
+        <v>1.932491195903764e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>5.596990249869888e-05</v>
+        <v>1.880590195513925e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>4.549725746844368e-05</v>
+        <v>1.010995091022593e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>4.193437728043786e-05</v>
+        <v>5.211814085417639e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>3.506680866285629e-05</v>
+        <v>2.582833297802318e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>2.695299192270684e-05</v>
+        <v>2.637578590325206e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>2.447107067560706e-05</v>
+        <v>1.830809212845548e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>2.09175615695311e-05</v>
+        <v>1.605379925939915e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>1.985098555338826e-05</v>
+        <v>1.024735007073871e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.989827771934388e-05</v>
+        <v>1.157505965639803e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>1.964759030100931e-05</v>
+        <v>2.449224312609904e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>1.896469756413016e-05</v>
+        <v>1.607217459243678e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>1.903535255746486e-05</v>
+        <v>7.089626707298022e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>1.919764789435293e-05</v>
+        <v>6.036918000279026e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>2.138839818466239e-05</v>
+        <v>5.371819818297631e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>2.323456071169031e-05</v>
+        <v>6.695880298800827e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>2.435255727323952e-05</v>
+        <v>1.176149973548098e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>2.446747351456787e-05</v>
+        <v>2.706456734655642e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>2.391643014582475e-05</v>
+        <v>3.026674105808213e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>2.258819248412589e-05</v>
+        <v>3.477969668147412e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>1.927090439621141e-05</v>
+        <v>3.581732529606045e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>1.192371960325189e-05</v>
+        <v>3.17077474521695e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>9.998340355508003e-06</v>
+        <v>2.741220348101755e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>7.946289201719511e-06</v>
+        <v>2.032602125908428e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>6.068838471717764e-06</v>
+        <v>1.830286834348129e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>5.670279578635425e-06</v>
+        <v>1.716444465399093e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>5.554104731471698e-06</v>
+        <v>1.7245559311265e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>5.649240035358044e-06</v>
+        <v>1.66521714863275e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>5.364112282050367e-06</v>
+        <v>1.655878189205338e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>5.327722279203384e-06</v>
+        <v>1.880478328667273e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>5.351050071462096e-06</v>
+        <v>2.461982417650823e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>5.330017144910397e-06</v>
+        <v>3.901143709331432e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>5.237357857490812e-06</v>
+        <v>5.884330420237385e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>5.130521892621308e-06</v>
+        <v>7.658103069837604e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>5.125295821154107e-06</v>
+        <v>1.005600556543147e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>4.589909143057842e-06</v>
+        <v>1.241328569781745e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>4.662176991856928e-06</v>
+        <v>1.334489336224496e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>4.686564099785663e-06</v>
+        <v>1.643654060977102e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>4.655346502154606e-06</v>
+        <v>1.991247262271072e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>4.085236366086601e-06</v>
+        <v>2.00266700462877e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>3.529206645060786e-06</v>
+        <v>2.226683941232774e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>3.336694605042231e-06</v>
+        <v>2.259118877442309e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>3.248862745063656e-06</v>
+        <v>2.234007503085151e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>4.00804268543706e-06</v>
+        <v>2.186838286531772e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>6.911195937611489e-06</v>
+        <v>2.185301910934484e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>8.467424107091187e-06</v>
+        <v>2.06695825177862e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>8.972513937859382e-06</v>
+        <v>2.008124409602507e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>9.137698022202911e-06</v>
+        <v>1.62848380069652e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>9.286214926212031e-06</v>
+        <v>1.499051504919143e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>9.341057899097342e-06</v>
+        <v>1.252186399662878e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>8.969974241114255e-06</v>
+        <v>9.60181214463475e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>8.20862234060383e-06</v>
+        <v>8.706595280107836e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>5.091530393396945e-06</v>
+        <v>7.433735148533762e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>3.241118928741838e-06</v>
+        <v>7.049844147821816e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>2.883098411500951e-06</v>
+        <v>7.066438368586048e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>3.25588719543759e-06</v>
+        <v>6.974170791203028e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>4.521860846132903e-06</v>
+        <v>6.723825961999431e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>5.02961741246675e-06</v>
+        <v>6.744030059891288e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>7.579697892673346e-06</v>
+        <v>6.797870303392233e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>9.982233272021879e-06</v>
+        <v>7.568802611350706e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>1.033690000146973e-05</v>
+        <v>8.216032490999719e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>9.895810674682375e-06</v>
+        <v>8.605635297474463e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>8.88783885965301e-06</v>
+        <v>8.639543785064227e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>8.800948680694108e-06</v>
+        <v>8.439344591908818e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>7.844137633096494e-06</v>
+        <v>7.960869588165866e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>6.643326374704787e-06</v>
+        <v>6.783904248443485e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>6.049105219341089e-06</v>
+        <v>4.187507954263819e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>5.932091059593587e-06</v>
+        <v>3.507146569758812e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>5.847477006380329e-06</v>
+        <v>2.784324427852484e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>5.77414126797176e-06</v>
+        <v>2.121589238394215e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>5.403299074986684e-06</v>
+        <v>1.979534284282936e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>6.034859099113073e-06</v>
+        <v>1.937262972333994e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>6.930065719015999e-06</v>
+        <v>1.969026411477831e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>7.829687251501866e-06</v>
+        <v>1.868702074369434e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>8.828710250121561e-06</v>
+        <v>1.855540890704324e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>1.018905784198889e-05</v>
+        <v>1.863471107530629e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>1.145260779400152e-05</v>
+        <v>1.856023308158241e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>1.09202408517627e-05</v>
+        <v>1.8228194128438e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>1.097396046954083e-05</v>
+        <v>1.784798036022221e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>9.814340505370373e-06</v>
+        <v>1.782117898716086e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>9.639680690223939e-06</v>
+        <v>1.595247300339553e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>8.522066260075493e-06</v>
+        <v>1.619880420880436e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>8.16108222824909e-06</v>
+        <v>1.628079691498484e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>7.950754320599825e-06</v>
+        <v>1.616050624930261e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>1.009652271802951e-05</v>
+        <v>1.416476767467173e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>8.81486141396878e-06</v>
+        <v>1.222243233648947e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>9.295072026013476e-06</v>
+        <v>1.154271441716164e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>8.414455172325735e-06</v>
+        <v>1.123509248794477e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>7.88040675381845e-06</v>
+        <v>1.384774856027984e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>7.470165195154491e-06</v>
+        <v>2.384943131013211e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>7.013222163945875e-06</v>
+        <v>2.920054347628783e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>6.472830912916081e-06</v>
+        <v>3.091972451383405e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>6.548432178320078e-06</v>
+        <v>3.146470429182734e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>3.351880026877996e-06</v>
+        <v>3.196079724410287e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>1.380162678277108e-06</v>
+        <v>3.214216050038685e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>8.532977955481974e-07</v>
+        <v>3.082096677962258e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>1.203786223968321e-06</v>
+        <v>2.818937448176389e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>7.48290687375354e-07</v>
+        <v>1.744069902414768e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>6.071366959840361e-07</v>
+        <v>1.105027098030746e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>5.176549771132693e-07</v>
+        <v>9.78269824614274e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>5.327091327200721e-07</v>
+        <v>1.099535695477929e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>7.386094849605438e-07</v>
+        <v>1.523639214536484e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>1.367324441826554e-06</v>
+        <v>1.693297862828543e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>1.511669517438849e-06</v>
+        <v>2.547548000003225e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.31068506794541e-06</v>
+        <v>3.347250018784731e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.164807947623013e-06</v>
+        <v>3.461988772727623e-06</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.310381861517151e-06</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.969683358127651e-06</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.940609013744064e-06</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.617940793718316e-06</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.214476051817458e-06</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.013910258512414e-06</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.973651888355982e-06</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.943319755293868e-06</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.918015352304885e-06</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.793699991470846e-06</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.000578586505464e-06</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.294811769408877e-06</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.58986063326867e-06</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.916651787567758e-06</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.362172018827333e-06</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.774460596715152e-06</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.598981680953234e-06</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.612778295169546e-06</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.226981235577415e-06</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.169409857342866e-06</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.79928934703568e-06</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.679876194163711e-06</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.610612202830974e-06</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.312444299314866e-06</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.890897259757538e-06</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.045279776887423e-06</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2.755508319426503e-06</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2.579361787831076e-06</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.443942597148736e-06</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.293257954329156e-06</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.115556765686363e-06</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.139449247251873e-06</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.093762109219994e-06</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.498005968650964e-07</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.779066850890779e-07</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.920166345010396e-07</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.436530924832169e-07</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.975931358268211e-07</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.683155417246509e-07</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.730782259910603e-07</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.393886703063304e-07</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.420401340282054e-07</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4.875156342032776e-07</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4.21591971146951e-07</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3.743276497783724e-07</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints7.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints7.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>6.693504186244372e-08</v>
+        <v>9.657309221498072e-07</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>1.854161518897194e-07</v>
+        <v>1.254608686668221e-06</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>2.788249330655005e-07</v>
+        <v>1.846357946806989e-06</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>2.917301990738969e-07</v>
+        <v>2.64413694315916e-06</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>3.032611496725985e-07</v>
+        <v>3.593454016493174e-06</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>3.207492009986372e-07</v>
+        <v>7.4918785883627e-06</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>2.91328026097552e-07</v>
+        <v>1.255541770239269e-05</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>3.206568614467961e-07</v>
+        <v>3.427092752552429e-05</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>2.383172112719236e-07</v>
+        <v>5.515465140760554e-05</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>3.00778029012281e-07</v>
+        <v>6.00882630736873e-05</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>2.344436825357062e-07</v>
+        <v>4.801136309123662e-05</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>2.097475247276757e-07</v>
+        <v>2.467621956950366e-05</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>3.007821135530552e-07</v>
+        <v>1.885480822519836e-05</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>2.33105561222528e-07</v>
+        <v>2.384972249923011e-05</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>2.383672889212441e-07</v>
+        <v>1.050891498535459e-05</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>2.067091849830087e-07</v>
+        <v>7.578997223242984e-06</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>2.117794361874185e-07</v>
+        <v>4.358955561518389e-06</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>2.724325371301681e-07</v>
+        <v>2.262261497682027e-06</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>2.238562523640716e-07</v>
+        <v>1.732104392008134e-06</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>2.604467343137688e-07</v>
+        <v>1.743158333949183e-06</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>4.952718060285485e-07</v>
+        <v>2.074257064949856e-06</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>5.546303919203715e-07</v>
+        <v>2.631141832040965e-06</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>7.359598960576798e-07</v>
+        <v>2.532015491889316e-06</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>8.054289836332886e-07</v>
+        <v>5.374023498206924e-06</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>7.064954343652535e-07</v>
+        <v>8.138320827374992e-06</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>8.593770498387566e-07</v>
+        <v>1.95524035317938e-05</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>7.841564322415551e-07</v>
+        <v>4.882132125913432e-05</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>8.165006389091877e-07</v>
+        <v>4.762232866516975e-05</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>8.008320299294125e-07</v>
+        <v>2.566166404551339e-05</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>7.987193790206215e-07</v>
+        <v>1.326048581511823e-05</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>7.550917965485744e-07</v>
+        <v>6.58743075401365e-06</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>6.988356249099366e-07</v>
+        <v>6.742576307203081e-06</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>8.332229715169905e-07</v>
+        <v>4.691566372454086e-06</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>7.288288545744235e-07</v>
+        <v>4.123370400527584e-06</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>7.060859943741226e-07</v>
+        <v>2.635266714289522e-06</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>4.593831182318696e-07</v>
+        <v>2.980090286525363e-06</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>4.685770513695443e-07</v>
+        <v>6.320687945891568e-06</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>3.855718778802548e-07</v>
+        <v>4.167600779335833e-06</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>4.711203783268673e-07</v>
+        <v>1.842754712115403e-06</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>7.090873728977587e-07</v>
+        <v>1.572774253462507e-06</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>7.236875073374894e-07</v>
+        <v>1.406180352081063e-06</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>6.745613757380191e-07</v>
+        <v>1.76110162577615e-06</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>6.054668299523072e-07</v>
+        <v>3.108126223650091e-06</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>6.349802636974698e-07</v>
+        <v>7.160945493615692e-06</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>6.119818649847697e-07</v>
+        <v>8.015228241819499e-06</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>3.998894903520942e-07</v>
+        <v>9.234748251155758e-06</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>5.170382100624639e-07</v>
+        <v>9.521495454513785e-06</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>7.573269239208679e-07</v>
+        <v>8.439343795414995e-06</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>1.081932621309931e-06</v>
+        <v>7.313254076100357e-06</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>1.466914957559265e-06</v>
+        <v>5.435357349188659e-06</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>3.051183916549606e-06</v>
+        <v>4.906093400806259e-06</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>5.101401595699877e-06</v>
+        <v>4.603262259174505e-06</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>1.390798637634807e-05</v>
+        <v>4.628427364994479e-06</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>2.23559101432235e-05</v>
+        <v>4.474249760019789e-06</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>2.42989065884108e-05</v>
+        <v>4.459537653078097e-06</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>1.937828661470144e-05</v>
+        <v>5.088659647746317e-06</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>9.940559695086481e-06</v>
+        <v>6.687967505817103e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>7.591755850987135e-06</v>
+        <v>1.065690320976653e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>9.598643854872021e-06</v>
+        <v>1.61126801785671e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>4.227299923011084e-06</v>
+        <v>2.102055593187606e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>3.04671429805661e-06</v>
+        <v>2.76669060964846e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>1.750208068233019e-06</v>
+        <v>3.420260358013521e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>9.061408926877307e-07</v>
+        <v>3.680471706645079e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>6.93464377385441e-07</v>
+        <v>4.540374921432445e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>6.974102808795645e-07</v>
+        <v>5.513388440803295e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>8.288965161986563e-07</v>
+        <v>5.549636818574323e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>1.050146019589129e-06</v>
+        <v>6.179916542227097e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>1.009583966779113e-06</v>
+        <v>6.277536481388473e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>2.1399021805797e-06</v>
+        <v>6.211998096170349e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>3.236650693889698e-06</v>
+        <v>6.08533640742006e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>7.758484127982836e-06</v>
+        <v>6.084190343955866e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>1.932491195903764e-05</v>
+        <v>5.758471510142491e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>1.880590195513925e-05</v>
+        <v>5.596990249869888e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>1.010995091022593e-05</v>
+        <v>4.549725746844368e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>5.211814085417639e-06</v>
+        <v>4.193437728043786e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>2.582833297802318e-06</v>
+        <v>3.506680866285629e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>2.637578590325206e-06</v>
+        <v>2.695299192270684e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>1.830809212845548e-06</v>
+        <v>2.447107067560706e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>1.605379925939915e-06</v>
+        <v>2.09175615695311e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>1.024735007073871e-06</v>
+        <v>1.985098555338826e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>1.157505965639803e-06</v>
+        <v>1.989827771934388e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>2.449224312609904e-06</v>
+        <v>1.964759030100931e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>1.607217459243678e-06</v>
+        <v>1.896469756413016e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>7.089626707298022e-07</v>
+        <v>1.903535255746486e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>6.036918000279026e-07</v>
+        <v>1.919764789435293e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>5.371819818297631e-07</v>
+        <v>2.138839818466239e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>6.695880298800827e-07</v>
+        <v>2.323456071169031e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>1.176149973548098e-06</v>
+        <v>2.435255727323952e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>2.706456734655642e-06</v>
+        <v>2.446747351456787e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>3.026674105808213e-06</v>
+        <v>2.391643014582475e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>3.477969668147412e-06</v>
+        <v>2.258819248412589e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>3.581732529606045e-06</v>
+        <v>1.927090439621141e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>3.17077474521695e-06</v>
+        <v>1.192371960325189e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>2.741220348101755e-06</v>
+        <v>9.998340355508003e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>2.032602125908428e-06</v>
+        <v>7.946289201719511e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>1.830286834348129e-06</v>
+        <v>6.068838471717764e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>1.716444465399093e-06</v>
+        <v>5.670279578635425e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>1.7245559311265e-06</v>
+        <v>5.554104731471698e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>1.66521714863275e-06</v>
+        <v>5.649240035358044e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>1.655878189205338e-06</v>
+        <v>5.364112282050367e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>1.880478328667273e-06</v>
+        <v>5.327722279203384e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>2.461982417650823e-06</v>
+        <v>5.351050071462096e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>3.901143709331432e-06</v>
+        <v>5.330017144910397e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>5.884330420237385e-06</v>
+        <v>5.237357857490812e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>7.658103069837604e-06</v>
+        <v>5.130521892621308e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>1.005600556543147e-05</v>
+        <v>5.125295821154107e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>1.241328569781745e-05</v>
+        <v>4.589909143057842e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>1.334489336224496e-05</v>
+        <v>4.662176991856928e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>1.643654060977102e-05</v>
+        <v>4.686564099785663e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>1.991247262271072e-05</v>
+        <v>4.655346502154606e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>2.00266700462877e-05</v>
+        <v>4.085236366086601e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>2.226683941232774e-05</v>
+        <v>3.529206645060786e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>2.259118877442309e-05</v>
+        <v>3.336694605042231e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>2.234007503085151e-05</v>
+        <v>3.248862745063656e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>2.186838286531772e-05</v>
+        <v>4.00804268543706e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>2.185301910934484e-05</v>
+        <v>6.911195937611489e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>2.06695825177862e-05</v>
+        <v>8.467424107091187e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>2.008124409602507e-05</v>
+        <v>8.972513937859382e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>1.62848380069652e-05</v>
+        <v>9.137698022202911e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>1.499051504919143e-05</v>
+        <v>9.286214926212031e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>1.252186399662878e-05</v>
+        <v>9.341057899097342e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>9.60181214463475e-06</v>
+        <v>8.969974241114255e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>8.706595280107836e-06</v>
+        <v>8.20862234060383e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>7.433735148533762e-06</v>
+        <v>5.091530393396945e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>7.049844147821816e-06</v>
+        <v>3.241118928741838e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>7.066438368586048e-06</v>
+        <v>2.883098411500951e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>6.974170791203028e-06</v>
+        <v>3.25588719543759e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>6.723825961999431e-06</v>
+        <v>4.521860846132903e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>6.744030059891288e-06</v>
+        <v>5.02961741246675e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>6.797870303392233e-06</v>
+        <v>7.579697892673346e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>7.568802611350706e-06</v>
+        <v>9.982233272021879e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>8.216032490999719e-06</v>
+        <v>1.033690000146973e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>8.605635297474463e-06</v>
+        <v>9.895810674682375e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>8.639543785064227e-06</v>
+        <v>8.88783885965301e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>8.439344591908818e-06</v>
+        <v>8.800948680694108e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>7.960869588165866e-06</v>
+        <v>7.844137633096494e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>6.783904248443485e-06</v>
+        <v>6.643326374704787e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>4.187507954263819e-06</v>
+        <v>6.049105219341089e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>3.507146569758812e-06</v>
+        <v>5.932091059593587e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>2.784324427852484e-06</v>
+        <v>5.847477006380329e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>2.121589238394215e-06</v>
+        <v>5.77414126797176e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>1.979534284282936e-06</v>
+        <v>5.403299074986684e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>1.937262972333994e-06</v>
+        <v>6.034859099113073e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>1.969026411477831e-06</v>
+        <v>6.930065719015999e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>1.868702074369434e-06</v>
+        <v>7.829687251501866e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>1.855540890704324e-06</v>
+        <v>8.828710250121561e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>1.863471107530629e-06</v>
+        <v>1.018905784198889e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>1.856023308158241e-06</v>
+        <v>1.145260779400152e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>1.8228194128438e-06</v>
+        <v>1.09202408517627e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>1.784798036022221e-06</v>
+        <v>1.097396046954083e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>1.782117898716086e-06</v>
+        <v>9.814340505370373e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>1.595247300339553e-06</v>
+        <v>9.639680690223939e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>1.619880420880436e-06</v>
+        <v>8.522066260075493e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>1.628079691498484e-06</v>
+        <v>8.16108222824909e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>1.616050624930261e-06</v>
+        <v>7.950754320599825e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>1.416476767467173e-06</v>
+        <v>1.009652271802951e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>1.222243233648947e-06</v>
+        <v>8.81486141396878e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>1.154271441716164e-06</v>
+        <v>9.295072026013476e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>1.123509248794477e-06</v>
+        <v>8.414455172325735e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>1.384774856027984e-06</v>
+        <v>7.88040675381845e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>2.384943131013211e-06</v>
+        <v>7.470165195154491e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>2.920054347628783e-06</v>
+        <v>7.013222163945875e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>3.091972451383405e-06</v>
+        <v>6.472830912916081e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>3.146470429182734e-06</v>
+        <v>6.548432178320078e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>3.196079724410287e-06</v>
+        <v>3.351880026877996e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>3.214216050038685e-06</v>
+        <v>1.380162678277108e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>3.082096677962258e-06</v>
+        <v>8.532977955481974e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>2.818937448176389e-06</v>
+        <v>1.203786223968321e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>1.744069902414768e-06</v>
+        <v>7.48290687375354e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>1.105027098030746e-06</v>
+        <v>6.071366959840361e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>9.78269824614274e-07</v>
+        <v>5.176549771132693e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.099535695477929e-06</v>
+        <v>5.327091327200721e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>1.523639214536484e-06</v>
+        <v>7.386094849605438e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>1.693297862828543e-06</v>
+        <v>1.367324441826554e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>2.547548000003225e-06</v>
+        <v>1.511669517438849e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>3.347250018784731e-06</v>
+        <v>1.31068506794541e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>3.461988772727623e-06</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>3.310381861517151e-06</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2.969683358127651e-06</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2.940609013744064e-06</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2.617940793718316e-06</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2.214476051817458e-06</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.013910258512414e-06</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.973651888355982e-06</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.943319755293868e-06</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.918015352304885e-06</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.793699991470846e-06</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.000578586505464e-06</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.294811769408877e-06</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.58986063326867e-06</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.916651787567758e-06</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.362172018827333e-06</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.774460596715152e-06</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.598981680953234e-06</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.612778295169546e-06</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.226981235577415e-06</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.169409857342866e-06</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.79928934703568e-06</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.679876194163711e-06</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.610612202830974e-06</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.312444299314866e-06</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.890897259757538e-06</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3.045279776887423e-06</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>2.755508319426503e-06</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2.579361787831076e-06</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.443942597148736e-06</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.293257954329156e-06</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.115556765686363e-06</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.139449247251873e-06</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.093762109219994e-06</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>4.498005968650964e-07</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.779066850890779e-07</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>3.920166345010396e-07</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.436530924832169e-07</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.975931358268211e-07</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.683155417246509e-07</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.730782259910603e-07</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2.393886703063304e-07</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>4.420401340282054e-07</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>4.875156342032776e-07</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4.21591971146951e-07</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>3.743276497783724e-07</v>
+        <v>1.164807947623013e-06</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints7.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints7.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>9.657309221498072e-07</v>
+        <v>104767573349.4535</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>1.254608686668221e-06</v>
+        <v>180733406590.815</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.846357946806989e-06</v>
+        <v>253374531273.7954</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>2.64413694315916e-06</v>
+        <v>253255940474.9553</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>3.593454016493174e-06</v>
+        <v>311561174558.4039</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>7.4918785883627e-06</v>
+        <v>297408177246.0275</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.255541770239269e-05</v>
+        <v>287480860581.4854</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>3.427092752552429e-05</v>
+        <v>313504800850.8953</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>5.515465140760554e-05</v>
+        <v>222374433477.4734</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>6.00882630736873e-05</v>
+        <v>281521805175.275</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>4.801136309123662e-05</v>
+        <v>313643936766.5996</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>2.467621956950366e-05</v>
+        <v>201484378536.4731</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>1.885480822519836e-05</v>
+        <v>276614851902.2913</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>2.384972249923011e-05</v>
+        <v>212271032510.5204</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>1.050891498535459e-05</v>
+        <v>228868663220.7679</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>7.578997223242984e-06</v>
+        <v>193763700785.9977</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>4.358955561518389e-06</v>
+        <v>200530536771.5413</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>2.262261497682027e-06</v>
+        <v>253971479033.5244</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.732104392008134e-06</v>
+        <v>209801579966.4289</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.743158333949183e-06</v>
+        <v>250124987432.1579</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>2.074257064949856e-06</v>
+        <v>450169206568.2302</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>2.631141832040965e-06</v>
+        <v>525030766698.8843</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>2.532015491889316e-06</v>
+        <v>732912013445.9236</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>5.374023498206924e-06</v>
+        <v>777002536159.1141</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>8.138320827374992e-06</v>
+        <v>732248420938.0167</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.95524035317938e-05</v>
+        <v>805784549000.2595</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>4.882132125913432e-05</v>
+        <v>787843395291.8905</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>4.762232866516975e-05</v>
+        <v>780411221920.183</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>2.566166404551339e-05</v>
+        <v>766374423625.3611</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1.326048581511823e-05</v>
+        <v>777496144513.7147</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>6.58743075401365e-06</v>
+        <v>728324925522.2888</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>6.742576307203081e-06</v>
+        <v>686709854347.9181</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>4.691566372454086e-06</v>
+        <v>776162077802.8069</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>4.123370400527584e-06</v>
+        <v>690145931096.4478</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>2.635266714289522e-06</v>
+        <v>659956832203.988</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>2.980090286525363e-06</v>
+        <v>444569417970.2466</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>6.320687945891568e-06</v>
+        <v>441372793694.1269</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>4.167600779335833e-06</v>
+        <v>416562487477.3389</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>1.842754712115403e-06</v>
+        <v>445397233494.2037</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>1.572774253462507e-06</v>
+        <v>664369482415.9679</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>1.406180352081063e-06</v>
+        <v>683449702749.7937</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.76110162577615e-06</v>
+        <v>627526124935.979</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>3.108126223650091e-06</v>
+        <v>565815935846.7332</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>7.160945493615692e-06</v>
+        <v>590033541803.8997</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>8.015228241819499e-06</v>
+        <v>572310208600.5337</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>9.234748251155758e-06</v>
+        <v>370810256402.3963</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>9.521495454513785e-06</v>
+        <v>483306135257.1014</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>8.439343795414995e-06</v>
+        <v>704471209457.8195</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>7.313254076100357e-06</v>
+        <v>1013017888893.816</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>5.435357349188659e-06</v>
+        <v>1371105166848.51</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>4.906093400806259e-06</v>
+        <v>2840304753627.624</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>4.603262259174505e-06</v>
+        <v>4749043816637.251</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>4.628427364994479e-06</v>
+        <v>12987052838656.33</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>4.474249760019789e-06</v>
+        <v>20856439628404.78</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>4.459537653078097e-06</v>
+        <v>22635561898270.54</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>5.088659647746317e-06</v>
+        <v>18061523941327.25</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>6.687967505817103e-06</v>
+        <v>9285437147795.721</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>1.065690320976653e-05</v>
+        <v>7097641673816.521</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>1.61126801785671e-05</v>
+        <v>8956331056542.4</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>2.102055593187606e-05</v>
+        <v>3939615129637.601</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>2.76669060964846e-05</v>
+        <v>2832152698900.263</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>3.420260358013521e-05</v>
+        <v>1623628468783.673</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>3.680471706645079e-05</v>
+        <v>845402355527.757</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>4.540374921432445e-05</v>
+        <v>648064264150.4434</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>5.513388440803295e-05</v>
+        <v>656669438201.4222</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>5.549636818574323e-05</v>
+        <v>771903221871.3749</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>6.179916542227097e-05</v>
+        <v>1001962722733.192</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>6.277536481388473e-05</v>
+        <v>966265572421.8906</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>6.211998096170349e-05</v>
+        <v>1953456306255.979</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>6.08533640742006e-05</v>
+        <v>3059480433540.019</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>6.084190343955866e-05</v>
+        <v>7241375895839.575</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>5.758471510142491e-05</v>
+        <v>18030968785718.13</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>5.596990249869888e-05</v>
+        <v>17555864388722.4</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>4.549725746844368e-05</v>
+        <v>9427441888746.719</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>4.193437728043786e-05</v>
+        <v>4886307703636.564</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>3.506680866285629e-05</v>
+        <v>2408939033295.838</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>2.695299192270684e-05</v>
+        <v>2469363449744.101</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>2.447107067560706e-05</v>
+        <v>1742294448116.605</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>2.09175615695311e-05</v>
+        <v>1496808346674.85</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>1.985098555338826e-05</v>
+        <v>953666526263.0925</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.989827771934388e-05</v>
+        <v>1078382640181.456</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>1.964759030100931e-05</v>
+        <v>2280218711261.09</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.896469756413016e-05</v>
+        <v>1495721283134.318</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>1.903535255746486e-05</v>
+        <v>658839355568.4318</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>1.919764789435293e-05</v>
+        <v>562222618172.0258</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>2.138839818466239e-05</v>
+        <v>501237257644.0764</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>2.323456071169031e-05</v>
+        <v>619556323999.3341</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>2.435255727323952e-05</v>
+        <v>1096696780761.626</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>2.446747351456787e-05</v>
+        <v>2519493885596.641</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>2.391643014582475e-05</v>
+        <v>2814697212225.946</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>2.258819248412589e-05</v>
+        <v>3248465033588.979</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>1.927090439621141e-05</v>
+        <v>3331785739173.676</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>1.192371960325189e-05</v>
+        <v>2943309987333.779</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>9.998340355508003e-06</v>
+        <v>2557757656649.008</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>7.946289201719511e-06</v>
+        <v>1892989267505.483</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>6.068838471717764e-06</v>
+        <v>1709058113264.05</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>5.670279578635425e-06</v>
+        <v>1603801914491.069</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>5.554104731471698e-06</v>
+        <v>1595636546528.963</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>5.649240035358044e-06</v>
+        <v>1555747850851.395</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>5.364112282050367e-06</v>
+        <v>1541574321908.258</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>5.327722279203384e-06</v>
+        <v>1752284961565.463</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>5.351050071462096e-06</v>
+        <v>2297830529339.02</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>5.330017144910397e-06</v>
+        <v>3635779576660.274</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>5.237357857490812e-06</v>
+        <v>5480305979498.701</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>5.130521892621308e-06</v>
+        <v>7138987300785.983</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>5.125295821154107e-06</v>
+        <v>9362338850740.4</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>4.589909143057842e-06</v>
+        <v>11569775266955.21</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>4.662176991856928e-06</v>
+        <v>12433905946322.04</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>4.686564099785663e-06</v>
+        <v>15334007085703.37</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>4.655346502154606e-06</v>
+        <v>18556747218649.61</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>4.085236366086601e-06</v>
+        <v>18661669265488.59</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>3.529206645060786e-06</v>
+        <v>20735791304360.27</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>3.336694605042231e-06</v>
+        <v>21043612816398.55</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>3.248862745063656e-06</v>
+        <v>20814999981128.7</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>4.00804268543706e-06</v>
+        <v>20382351141914.67</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>6.911195937611489e-06</v>
+        <v>20333717243133.62</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>8.467424107091187e-06</v>
+        <v>19253123401550.83</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>8.972513937859382e-06</v>
+        <v>18711190537275.12</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>9.137698022202911e-06</v>
+        <v>15170289397642.25</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>9.286214926212031e-06</v>
+        <v>13959552322500.18</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>9.341057899097342e-06</v>
+        <v>11679296152205.68</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>8.969974241114255e-06</v>
+        <v>8944662440020.24</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>8.20862234060383e-06</v>
+        <v>8109213684500.167</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>5.091530393396945e-06</v>
+        <v>6935038845727.871</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>3.241118928741838e-06</v>
+        <v>6569446547653.573</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>2.883098411500951e-06</v>
+        <v>6589558811855.563</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>3.25588719543759e-06</v>
+        <v>6513277165484.813</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>4.521860846132903e-06</v>
+        <v>6267133178349.052</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>5.02961741246675e-06</v>
+        <v>6294784162860.001</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>7.579697892673346e-06</v>
+        <v>6328874331877.871</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>9.982233272021879e-06</v>
+        <v>7053575040062.105</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>1.033690000146973e-05</v>
+        <v>7649892863425.913</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>9.895810674682375e-06</v>
+        <v>8012237156334.634</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>8.88783885965301e-06</v>
+        <v>8059441796106.867</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>8.800948680694108e-06</v>
+        <v>7855611508677.276</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>7.844137633096494e-06</v>
+        <v>7413523379165.707</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>6.643326374704787e-06</v>
+        <v>6324749862034.483</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>6.049105219341089e-06</v>
+        <v>3899280878735.306</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>5.932091059593587e-06</v>
+        <v>3257999457504.4</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>5.847477006380329e-06</v>
+        <v>2597998183704.836</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>5.77414126797176e-06</v>
+        <v>1980090574822.485</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>5.403299074986684e-06</v>
+        <v>1840974962771.234</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>6.034859099113073e-06</v>
+        <v>1795279869953.292</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>6.930065719015999e-06</v>
+        <v>1832795750153.09</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>7.829687251501866e-06</v>
+        <v>1741357055875.272</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>8.828710250121561e-06</v>
+        <v>1737787713821.504</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>1.018905784198889e-05</v>
+        <v>1739273571711.577</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>1.145260779400152e-05</v>
+        <v>1731013461667.421</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>1.09202408517627e-05</v>
+        <v>1697111404694.626</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>1.097396046954083e-05</v>
+        <v>1655315415458.136</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>9.814340505370373e-06</v>
+        <v>1653378785672.143</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>9.639680690223939e-06</v>
+        <v>1493120079394.279</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>8.522066260075493e-06</v>
+        <v>1507878366235.891</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>8.16108222824909e-06</v>
+        <v>1520923639883.742</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>7.950754320599825e-06</v>
+        <v>1505529904835.985</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>1.009652271802951e-05</v>
+        <v>1320948145655.065</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>8.81486141396878e-06</v>
+        <v>1146183923011.484</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>9.295072026013476e-06</v>
+        <v>1074105947732.965</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>8.414455172325735e-06</v>
+        <v>1045515581973.117</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>7.88040675381845e-06</v>
+        <v>1287202591239.369</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>7.470165195154491e-06</v>
+        <v>2235891342308.543</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>7.013222163945875e-06</v>
+        <v>2714434458885.008</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>6.472830912916081e-06</v>
+        <v>2879392894197.813</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>6.548432178320078e-06</v>
+        <v>2924218113094.467</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>3.351880026877996e-06</v>
+        <v>2973052646152.596</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>1.380162678277108e-06</v>
+        <v>2994469090038.439</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>8.532977955481974e-07</v>
+        <v>2867693708711.088</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>1.203786223968321e-06</v>
+        <v>2630431336734.771</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>7.48290687375354e-07</v>
+        <v>1624645894718.459</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>6.071366959840361e-07</v>
+        <v>1028631944734.165</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>5.176549771132693e-07</v>
+        <v>912244929565.6729</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>5.327091327200721e-07</v>
+        <v>1025547044379.047</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>7.386094849605438e-07</v>
+        <v>1423107608520.924</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>1.367324441826554e-06</v>
+        <v>1573502985460.78</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>1.511669517438849e-06</v>
+        <v>2365846724818.656</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.31068506794541e-06</v>
+        <v>3135746509780.351</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.164807947623013e-06</v>
+        <v>3222091173704.7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3082774580109.442</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2760181719832.249</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2739814251828.291</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2439257589278.191</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2061186385023.178</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1881588232136.196</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1853057665812.85</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1816150955864.357</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1790918684646.382</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1678442426303.533</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1868522343344.951</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2144035358276.094</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2414630778177.331</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2712099268362.397</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3129443431660.945</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3518906129010.398</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3354219591557.417</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3357741062353.4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3007758220950.282</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2953395582655.19</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2612682189041.34</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2500372443927.694</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2436268284106.835</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3086958605244.666</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2691793009806.394</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2829725003626.98</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2568466772448.836</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2404592314607.06</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2276741672230.062</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2131684743722.411</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1970236537408.09</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1997529086288.282</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1022141225121.224</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>418594503473.4458</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>258615685563.6039</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>365250869395.4874</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>226927353920.664</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>183695106418.3809</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>155404005914.9875</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>157889353717.6622</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>223524248294.2007</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>411076746314.3365</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>453548971740.8784</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>392386779812.4564</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>347999189494.7539</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints7.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints7.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>104767573349.4535</v>
+        <v>1.094278153513967e-06</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>180733406590.815</v>
+        <v>1.37560744115609e-06</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>253374531273.7954</v>
+        <v>2.010322556252286e-06</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>253255940474.9553</v>
+        <v>2.920325081419417e-06</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>311561174558.4039</v>
+        <v>3.962379600867709e-06</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>297408177246.0275</v>
+        <v>8.034983917199609e-06</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>287480860581.4854</v>
+        <v>1.348594850718288e-05</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>313504800850.8953</v>
+        <v>3.61873086116813e-05</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>222374433477.4734</v>
+        <v>5.803090780919706e-05</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>281521805175.275</v>
+        <v>6.357025689956681e-05</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>313643936766.5996</v>
+        <v>5.061479115915529e-05</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>201484378536.4731</v>
+        <v>2.597021061080179e-05</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>276614851902.2913</v>
+        <v>2.001699075926627e-05</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>212271032510.5204</v>
+        <v>2.527576513821787e-05</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>228868663220.7679</v>
+        <v>1.128660868761987e-05</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>193763700785.9977</v>
+        <v>7.990668161671641e-06</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>200530536771.5413</v>
+        <v>4.655319162028495e-06</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>253971479033.5244</v>
+        <v>2.513025531315854e-06</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>209801579966.4289</v>
+        <v>1.919527940189324e-06</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>250124987432.1579</v>
+        <v>1.909944500432279e-06</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>450169206568.2302</v>
+        <v>2.340802637472615e-06</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>525030766698.8843</v>
+        <v>2.928449173507756e-06</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>732912013445.9236</v>
+        <v>2.814090707529205e-06</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>777002536159.1141</v>
+        <v>5.782021223649052e-06</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>732248420938.0167</v>
+        <v>8.975616457148985e-06</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>805784549000.2595</v>
+        <v>2.069879237338643e-05</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>787843395291.8905</v>
+        <v>5.210022437949105e-05</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>780411221920.183</v>
+        <v>5.106120714828457e-05</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>766374423625.3611</v>
+        <v>2.699944427306937e-05</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>777496144513.7147</v>
+        <v>1.420074114528971e-05</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>728324925522.2888</v>
+        <v>7.098646800118536e-06</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>686709854347.9181</v>
+        <v>7.181713737386836e-06</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>776162077802.8069</v>
+        <v>4.894317996647627e-06</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>690145931096.4478</v>
+        <v>4.525232086188608e-06</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>659956832203.988</v>
+        <v>2.71269291288699e-06</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>444569417970.2466</v>
+        <v>3.256215806426689e-06</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>441372793694.1269</v>
+        <v>6.872540582956002e-06</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>416562487477.3389</v>
+        <v>4.512145457522054e-06</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>445397233494.2037</v>
+        <v>2.008197056688612e-06</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>664369482415.9679</v>
+        <v>1.78430475624231e-06</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>683449702749.7937</v>
+        <v>1.569955889369899e-06</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>627526124935.979</v>
+        <v>1.882564842065873e-06</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>565815935846.7332</v>
+        <v>3.424412951404386e-06</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>590033541803.8997</v>
+        <v>7.702492151915746e-06</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>572310208600.5337</v>
+        <v>8.633204636504204e-06</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>370810256402.3963</v>
+        <v>9.98043829901369e-06</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>483306135257.1014</v>
+        <v>1.018072419915835e-05</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>704471209457.8195</v>
+        <v>8.943077671456349e-06</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>1013017888893.816</v>
+        <v>7.90795709527293e-06</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>1371105166848.51</v>
+        <v>5.914301934739935e-06</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>2840304753627.624</v>
+        <v>5.417004355815069e-06</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>4749043816637.251</v>
+        <v>5.032051975156021e-06</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>12987052838656.33</v>
+        <v>5.007432198596645e-06</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>20856439628404.78</v>
+        <v>4.872967109868102e-06</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>22635561898270.54</v>
+        <v>4.827338061787584e-06</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>18061523941327.25</v>
+        <v>5.507757815616912e-06</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>9285437147795.721</v>
+        <v>7.259519999343921e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>7097641673816.521</v>
+        <v>1.147571266763e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>8956331056542.4</v>
+        <v>1.706455290234131e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>3939615129637.601</v>
+        <v>2.235527264638501e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>2832152698900.263</v>
+        <v>2.930126482691663e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1623628468783.673</v>
+        <v>3.618673098267598e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>845402355527.757</v>
+        <v>3.88737350126545e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>648064264150.4434</v>
+        <v>4.80562513638999e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>656669438201.4222</v>
+        <v>5.813606256676977e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>771903221871.3749</v>
+        <v>5.86203218334253e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1001962722733.192</v>
+        <v>6.508191535523461e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>966265572421.8906</v>
+        <v>6.617877837783302e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1953456306255.979</v>
+        <v>6.555772213977121e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>3059480433540.019</v>
+        <v>6.421016346559997e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>7241375895839.575</v>
+        <v>6.400356400969473e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>18030968785718.13</v>
+        <v>6.060465838195906e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>17555864388722.4</v>
+        <v>5.904290184109568e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>9427441888746.719</v>
+        <v>4.802908504751648e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>4886307703636.564</v>
+        <v>4.431040622489338e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>2408939033295.838</v>
+        <v>3.708047874646073e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>2469363449744.101</v>
+        <v>2.846507081807443e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1742294448116.605</v>
+        <v>2.58971636359776e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1496808346674.85</v>
+        <v>2.220800598967842e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>953666526263.0925</v>
+        <v>2.10468103772361e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1078382640181.456</v>
+        <v>2.114660938533215e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>2280218711261.09</v>
+        <v>2.09100561101614e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1495721283134.318</v>
+        <v>2.011289571276205e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>658839355568.4318</v>
+        <v>2.024109537789729e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>562222618172.0258</v>
+        <v>2.043375400443765e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>501237257644.0764</v>
+        <v>2.259548353607758e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>619556323999.3341</v>
+        <v>2.46169014760125e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>1096696780761.626</v>
+        <v>2.577727418010091e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>2519493885596.641</v>
+        <v>2.600088998415883e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>2814697212225.946</v>
+        <v>2.527035580288037e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>3248465033588.979</v>
+        <v>2.387236746858534e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>3331785739173.676</v>
+        <v>2.045186932742807e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>2943309987333.779</v>
+        <v>1.268515475398314e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>2557757656649.008</v>
+        <v>1.062376286136662e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1892989267505.483</v>
+        <v>8.549653821612267e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1709058113264.05</v>
+        <v>6.546851488608172e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1603801914491.069</v>
+        <v>6.136967448447772e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1595636546528.963</v>
+        <v>6.000447374497791e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>1555747850851.395</v>
+        <v>6.12105797945777e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>1541574321908.258</v>
+        <v>5.80311764330117e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>1752284961565.463</v>
+        <v>5.789575076295245e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>2297830529339.02</v>
+        <v>5.831912703235358e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>3635779576660.274</v>
+        <v>5.757564668616777e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>5480305979498.701</v>
+        <v>5.630114636665248e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>7138987300785.983</v>
+        <v>5.473695853267456e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>9362338850740.4</v>
+        <v>5.390498047793756e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>11569775266955.21</v>
+        <v>5.047901227825125e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>12433905946322.04</v>
+        <v>5.075801293599256e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>15334007085703.37</v>
+        <v>5.163164092498122e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>18556747218649.61</v>
+        <v>5.08882146651135e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>18661669265488.59</v>
+        <v>4.46596568979948e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>20735791304360.27</v>
+        <v>3.911367676806748e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>21043612816398.55</v>
+        <v>3.666326478870105e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>20814999981128.7</v>
+        <v>3.556061027669135e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>20382351141914.67</v>
+        <v>4.428214009892462e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>20333717243133.62</v>
+        <v>7.544162466645756e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>19253123401550.83</v>
+        <v>9.08720300147266e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>18711190537275.12</v>
+        <v>9.662216307523434e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>15170289397642.25</v>
+        <v>9.779619944074524e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>13959552322500.18</v>
+        <v>1.00354772321832e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>11679296152205.68</v>
+        <v>1.006268723760406e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>8944662440020.24</v>
+        <v>9.619777879323105e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>8109213684500.167</v>
+        <v>8.863458524047383e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>6935038845727.871</v>
+        <v>5.511743007342115e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>6569446547653.573</v>
+        <v>3.529101897824516e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>6589558811855.563</v>
+        <v>3.182605783799246e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>6513277165484.813</v>
+        <v>3.537643133374488e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>6267133178349.052</v>
+        <v>4.937753426561688e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>6294784162860.001</v>
+        <v>5.458264403329837e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>6328874331877.871</v>
+        <v>8.140913078426297e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>7053575040062.105</v>
+        <v>1.069864703122559e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>7649892863425.913</v>
+        <v>1.115003910631126e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>8012237156334.634</v>
+        <v>1.06078616538574e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>8059441796106.867</v>
+        <v>9.444072863480757e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>7855611508677.276</v>
+        <v>8.361694839009868e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>7413523379165.707</v>
+        <v>7.089816168688767e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>6324749862034.483</v>
+        <v>6.5388213321222e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>3899280878735.306</v>
+        <v>6.507557972947648e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>3257999457504.4</v>
+        <v>6.228408021189324e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>2597998183704.836</v>
+        <v>6.200841327369345e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>1980090574822.485</v>
+        <v>5.974870464688332e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>1840974962771.234</v>
+        <v>6.553694431395341e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1795279869953.292</v>
+        <v>7.506840785035115e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1832795750153.09</v>
+        <v>8.413369726882979e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>1741357055875.272</v>
+        <v>9.464784741590694e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1737787713821.504</v>
+        <v>1.086805514005802e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>1739273571711.577</v>
+        <v>1.193526198596037e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>1731013461667.421</v>
+        <v>1.162932579566509e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1697111404694.626</v>
+        <v>1.04739593130556e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1655315415458.136</v>
+        <v>1.029635523391794e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1653378785672.143</v>
+        <v>9.131188389357727e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>1493120079394.279</v>
+        <v>8.750265271173306e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>1507878366235.891</v>
+        <v>8.536476030342651e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1520923639883.742</v>
+        <v>1.075289660614499e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1505529904835.985</v>
+        <v>9.435948472392113e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>1320948145655.065</v>
+        <v>9.911658100499521e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1146183923011.484</v>
+        <v>9.00822652627263e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1074105947732.965</v>
+        <v>8.446165983268557e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1045515581973.117</v>
+        <v>8.027325978866341e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>1287202591239.369</v>
+        <v>7.432688995612916e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>2235891342308.543</v>
+        <v>6.94747415696791e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>2714434458885.008</v>
+        <v>7.091739684376806e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>2879392894197.813</v>
+        <v>3.674317645336958e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>2924218113094.467</v>
+        <v>1.521814639623374e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>2973052646152.596</v>
+        <v>9.18756081190784e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>2994469090038.439</v>
+        <v>1.322981887471019e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>2867693708711.088</v>
+        <v>8.241682165055707e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>2630431336734.771</v>
+        <v>6.604274841487445e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>1624645894718.459</v>
+        <v>5.55329286845214e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>1028631944734.165</v>
+        <v>5.607055862575518e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>912244929565.6729</v>
+        <v>8.207115467756489e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1025547044379.047</v>
+        <v>1.50079012812572e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>1423107608520.924</v>
+        <v>1.662486243300665e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>1573502985460.78</v>
+        <v>1.435432710184184e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>2365846724818.656</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>3135746509780.351</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>3222091173704.7</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>3082774580109.442</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2760181719832.249</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2739814251828.291</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2439257589278.191</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2061186385023.178</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1881588232136.196</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1853057665812.85</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1816150955864.357</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1790918684646.382</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1678442426303.533</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1868522343344.951</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2144035358276.094</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2414630778177.331</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2712099268362.397</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3129443431660.945</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3518906129010.398</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3354219591557.417</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3357741062353.4</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3007758220950.282</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2953395582655.19</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2612682189041.34</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2500372443927.694</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2436268284106.835</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3086958605244.666</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2691793009806.394</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2829725003626.98</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>2568466772448.836</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2404592314607.06</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2276741672230.062</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2131684743722.411</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1970236537408.09</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1997529086288.282</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1022141225121.224</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>418594503473.4458</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>258615685563.6039</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>365250869395.4874</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>226927353920.664</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>183695106418.3809</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>155404005914.9875</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>157889353717.6622</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>223524248294.2007</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>411076746314.3365</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>453548971740.8784</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>392386779812.4564</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>347999189494.7539</v>
+        <v>1.275568640297753e-06</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints7.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints7.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.094278153513967e-06</v>
+        <v>5.726079855743027e-07</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.37560744115609e-06</v>
+        <v>8.533215556508259e-07</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>2.010322556252286e-06</v>
+        <v>1.434504134603631e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>2.920325081419417e-06</v>
+        <v>2.412367943471331e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>3.962379600867709e-06</v>
+        <v>3.559383592819433e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>8.034983917199609e-06</v>
+        <v>7.369348920723137e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1.348594850718288e-05</v>
+        <v>1.308688097078377e-05</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>3.61873086116813e-05</v>
+        <v>3.533058983154134e-05</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>5.803090780919706e-05</v>
+        <v>5.681577706383328e-05</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>6.357025689956681e-05</v>
+        <v>6.3096732512165e-05</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>5.061479115915529e-05</v>
+        <v>4.99531499742355e-05</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>2.597021061080179e-05</v>
+        <v>2.571843821597582e-05</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>2.001699075926627e-05</v>
+        <v>1.942755735740317e-05</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.527576513821787e-05</v>
+        <v>2.49577587979914e-05</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.128660868761987e-05</v>
+        <v>1.077300598077321e-05</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>7.990668161671641e-06</v>
+        <v>7.635798970281239e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>4.655319162028495e-06</v>
+        <v>4.027168567204102e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>2.513025531315854e-06</v>
+        <v>2.032333114777521e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.919527940189324e-06</v>
+        <v>1.541967444059162e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.909944500432279e-06</v>
+        <v>1.450825832180311e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2.340802637472615e-06</v>
+        <v>1.989709455853621e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>2.928449173507756e-06</v>
+        <v>2.778043224246122e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>2.814090707529205e-06</v>
+        <v>2.369366255861163e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>5.782021223649052e-06</v>
+        <v>5.015278530554649e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>8.975616457148985e-06</v>
+        <v>7.950194518339389e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>2.069879237338643e-05</v>
+        <v>2.050645591434356e-05</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>5.210022437949105e-05</v>
+        <v>5.17890000188101e-05</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>5.106120714828457e-05</v>
+        <v>5.040872053334982e-05</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>2.699944427306937e-05</v>
+        <v>2.683566192543411e-05</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1.420074114528971e-05</v>
+        <v>1.370198016683289e-05</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>7.098646800118536e-06</v>
+        <v>6.793521070144696e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>7.181713737386836e-06</v>
+        <v>6.833930129388915e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>4.894317996647627e-06</v>
+        <v>5.031747225439998e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>4.525232086188608e-06</v>
+        <v>3.471841546519154e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>2.71269291288699e-06</v>
+        <v>2.661679821951939e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>3.256215806426689e-06</v>
+        <v>3.151216438433933e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>6.872540582956002e-06</v>
+        <v>6.758082350389901e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>4.512145457522054e-06</v>
+        <v>4.434693071101457e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>2.008197056688612e-06</v>
+        <v>1.841150761994223e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1.78430475624231e-06</v>
+        <v>1.564191329076947e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.569955889369899e-06</v>
+        <v>1.459465990531657e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.882564842065873e-06</v>
+        <v>1.721028822804305e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>3.424412951404386e-06</v>
+        <v>3.359160653962998e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>7.702492151915746e-06</v>
+        <v>7.593910333525489e-06</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>8.633204636504204e-06</v>
+        <v>8.512638997052114e-06</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>9.98043829901369e-06</v>
+        <v>9.979308347283506e-06</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.018072419915835e-05</v>
+        <v>1.01376053014204e-05</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>8.943077671456349e-06</v>
+        <v>8.822242980300888e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>7.90795709527293e-06</v>
+        <v>7.782539237526567e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>5.914301934739935e-06</v>
+        <v>5.945902911449014e-06</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>5.417004355815069e-06</v>
+        <v>5.366819844091356e-06</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>5.032051975156021e-06</v>
+        <v>5.087901629486713e-06</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>5.007432198596645e-06</v>
+        <v>4.926869751401153e-06</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>4.872967109868102e-06</v>
+        <v>4.67287397786998e-06</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>4.827338061787584e-06</v>
+        <v>4.645868325359333e-06</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5.507757815616912e-06</v>
+        <v>5.427882036065363e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>7.259519999343921e-06</v>
+        <v>7.157595859520102e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>1.147571266763e-05</v>
+        <v>1.147915824282482e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>1.706455290234131e-05</v>
+        <v>1.715343337776616e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>2.235527264638501e-05</v>
+        <v>2.244787259949481e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>2.930126482691663e-05</v>
+        <v>2.937650803054756e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>3.618673098267598e-05</v>
+        <v>3.635399254687489e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>3.88737350126545e-05</v>
+        <v>3.893972431097365e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>4.80562513638999e-05</v>
+        <v>4.810295813665131e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>5.813606256676977e-05</v>
+        <v>5.844417694000472e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>5.86203218334253e-05</v>
+        <v>5.88018802575866e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>6.508191535523461e-05</v>
+        <v>6.580943369522053e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>6.617877837783302e-05</v>
+        <v>6.634348502335522e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>6.555772213977121e-05</v>
+        <v>6.60057669139457e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>6.421016346559997e-05</v>
+        <v>6.450658936988403e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>6.400356400969473e-05</v>
+        <v>6.411922309123678e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>6.060465838195906e-05</v>
+        <v>6.120822213589049e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>5.904290184109568e-05</v>
+        <v>5.926854144675146e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>4.802908504751648e-05</v>
+        <v>4.843823542126463e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>4.431040622489338e-05</v>
+        <v>4.432478317990726e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>3.708047874646073e-05</v>
+        <v>3.720146755522014e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>2.846507081807443e-05</v>
+        <v>2.864136418664936e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>2.58971636359776e-05</v>
+        <v>2.602785369834008e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>2.220800598967842e-05</v>
+        <v>2.225795149018768e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>2.10468103772361e-05</v>
+        <v>2.113908034007359e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>2.114660938533215e-05</v>
+        <v>2.120007395412659e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>2.09100561101614e-05</v>
+        <v>2.097797889254841e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>2.011289571276205e-05</v>
+        <v>2.015739199692672e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>2.024109537789729e-05</v>
+        <v>2.026874142986244e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>2.043375400443765e-05</v>
+        <v>2.044864148136913e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>2.259548353607758e-05</v>
+        <v>2.268427632794134e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>2.46169014760125e-05</v>
+        <v>2.46193330306596e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>2.577727418010091e-05</v>
+        <v>2.576295446156774e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>2.600088998415883e-05</v>
+        <v>2.601116149093103e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>2.527035580288037e-05</v>
+        <v>2.534963468406205e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>2.387236746858534e-05</v>
+        <v>2.385599774610558e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>2.045186932742807e-05</v>
+        <v>2.055787629010948e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>1.268515475398314e-05</v>
+        <v>1.276547662865148e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>1.062376286136662e-05</v>
+        <v>1.073537526367586e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>8.549653821612267e-06</v>
+        <v>8.594017561880951e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>6.546851488608172e-06</v>
+        <v>6.584516423921221e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>6.136967448447772e-06</v>
+        <v>6.14646580276153e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>6.000447374497791e-06</v>
+        <v>6.002464083818365e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>6.12105797945777e-06</v>
+        <v>6.085431794068981e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>5.80311764330117e-06</v>
+        <v>5.764337536093933e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>5.789575076295245e-06</v>
+        <v>5.793757997358422e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>5.831912703235358e-06</v>
+        <v>5.789737196106194e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>5.757564668616777e-06</v>
+        <v>5.765479100695082e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>5.630114636665248e-06</v>
+        <v>5.68181794595703e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>5.473695853267456e-06</v>
+        <v>5.449228307911849e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>5.390498047793756e-06</v>
+        <v>5.380855698213337e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>5.047901227825125e-06</v>
+        <v>5.021530024773585e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>5.075801293599256e-06</v>
+        <v>5.031656662359423e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>5.163164092498122e-06</v>
+        <v>5.156473980055384e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>5.08882146651135e-06</v>
+        <v>5.01356111771533e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>4.46596568979948e-06</v>
+        <v>4.426778443420119e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>3.911367676806748e-06</v>
+        <v>3.928300149424375e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>3.666326478870105e-06</v>
+        <v>3.666529339621841e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>3.556061027669135e-06</v>
+        <v>3.603854790274538e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>4.428214009892462e-06</v>
+        <v>4.412090283017352e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>7.544162466645756e-06</v>
+        <v>7.509677194132254e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>9.08720300147266e-06</v>
+        <v>9.095185662632058e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>9.662216307523434e-06</v>
+        <v>9.63613202194663e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>9.779619944074524e-06</v>
+        <v>9.766871723759692e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>1.00354772321832e-05</v>
+        <v>1.002661694300159e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>1.006268723760406e-05</v>
+        <v>1.010030189195361e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>9.619777879323105e-06</v>
+        <v>9.673392398192173e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>8.863458524047383e-06</v>
+        <v>8.921263203440942e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>5.511743007342115e-06</v>
+        <v>5.52221702304999e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>3.529101897824516e-06</v>
+        <v>3.558803541840025e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>3.182605783799246e-06</v>
+        <v>3.184230634932184e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>3.537643133374488e-06</v>
+        <v>3.566595853048638e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>4.937753426561688e-06</v>
+        <v>4.9388230049503e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>5.458264403329837e-06</v>
+        <v>5.446401064920704e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>8.140913078426297e-06</v>
+        <v>8.100521410061071e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>1.069864703122559e-05</v>
+        <v>1.087466944011144e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>1.115003910631126e-05</v>
+        <v>1.116649687270362e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.06078616538574e-05</v>
+        <v>1.06206947438763e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>9.444072863480757e-06</v>
+        <v>9.432883368356686e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>8.361694839009868e-06</v>
+        <v>8.328061014608216e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>7.089816168688767e-06</v>
+        <v>7.19273213276614e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>6.5388213321222e-06</v>
+        <v>6.48367490832311e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>6.507557972947648e-06</v>
+        <v>6.379284653964307e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>6.228408021189324e-06</v>
+        <v>5.726318966936532e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>6.200841327369345e-06</v>
+        <v>6.160725906688975e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>5.974870464688332e-06</v>
+        <v>5.993529244676686e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>6.553694431395341e-06</v>
+        <v>6.318193837542401e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>7.506840785035115e-06</v>
+        <v>7.433398624249266e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>8.413369726882979e-06</v>
+        <v>8.374860939844923e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>9.464784741590694e-06</v>
+        <v>9.424078244624321e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1.086805514005802e-05</v>
+        <v>1.08439520826341e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>1.193526198596037e-05</v>
+        <v>1.19555442263743e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>1.162932579566509e-05</v>
+        <v>1.159781632756693e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.04739593130556e-05</v>
+        <v>1.050714592016068e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.029635523391794e-05</v>
+        <v>1.03394816188868e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>9.131188389357727e-06</v>
+        <v>9.194440754271329e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>8.750265271173306e-06</v>
+        <v>8.773162317752622e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>8.536476030342651e-06</v>
+        <v>8.570435624275599e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.075289660614499e-05</v>
+        <v>1.081149111031736e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>9.435948472392113e-06</v>
+        <v>9.457903403387027e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>9.911658100499521e-06</v>
+        <v>9.964404231414366e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>9.00822652627263e-06</v>
+        <v>9.045561477261666e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>8.446165983268557e-06</v>
+        <v>8.48319511329621e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>8.027325978866341e-06</v>
+        <v>8.033320976924931e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>7.432688995612916e-06</v>
+        <v>7.484987802957375e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>6.94747415696791e-06</v>
+        <v>6.978785147969241e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>7.091739684376806e-06</v>
+        <v>7.136372572285274e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>3.674317645336958e-06</v>
+        <v>3.69531601292343e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.521814639623374e-06</v>
+        <v>1.567037514252052e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>9.18756081190784e-07</v>
+        <v>9.386308666761772e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.322981887471019e-06</v>
+        <v>1.345643938628676e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>8.241682165055707e-07</v>
+        <v>8.506038423841477e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>6.604274841487445e-07</v>
+        <v>6.859872481049065e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>5.55329286845214e-07</v>
+        <v>5.749140304399838e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>5.607055862575518e-07</v>
+        <v>5.13209851461183e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>8.207115467756489e-07</v>
+        <v>8.270885975919888e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1.50079012812572e-06</v>
+        <v>1.49085818568084e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>1.662486243300665e-06</v>
+        <v>1.678958154460781e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>1.435432710184184e-06</v>
+        <v>1.459358342788757e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>1.275568640297753e-06</v>
+        <v>1.301499838548261e-06</v>
       </c>
     </row>
   </sheetData>
